--- a/specification/사용자 요구사항 정의서.xlsx
+++ b/specification/사용자 요구사항 정의서.xlsx
@@ -153,27 +153,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>서비스 이용자가 되기 위한 절차이며 모든 사용자는 사용에 앞서 회원가입을 해야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서비스 이용자가 되기 위한 절차이며 모든 사용자는 사용에 앞서 회원가입을 해야한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서비스에서 회원가입 버튼을 눌러 회원가입 페이지로 이동한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1170,14 +1170,14 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.1171875" style="21" customWidth="1"/>
     <col min="2" max="2" width="22.87890625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.52734375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.64453125" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.52734375" style="21" customWidth="1"/>
     <col min="5" max="5" width="13.52734375" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.87890625" style="21"/>
@@ -1323,12 +1323,12 @@
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="19"/>
       <c r="E15" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="63" x14ac:dyDescent="0.3">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="11"/>
@@ -1349,7 +1349,7 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E17" s="18"/>
     </row>
@@ -1390,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="34"/>
@@ -1464,7 +1464,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="34"/>
